--- a/documentation/BeginnerBudget.xlsx
+++ b/documentation/BeginnerBudget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Description</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>B0154KMHE2</t>
+  </si>
+  <si>
+    <t>Soldering Iron</t>
+  </si>
+  <si>
+    <t>60W 110v adjustable heat soldering iron and extras</t>
+  </si>
+  <si>
+    <t>Holife</t>
+  </si>
+  <si>
+    <t>B06XCZC4PF</t>
+  </si>
+  <si>
+    <t>Wire Stripper</t>
+  </si>
+  <si>
+    <t>Strips 10 - 24 AWG</t>
+  </si>
+  <si>
+    <t>Capri Tools</t>
+  </si>
+  <si>
+    <t>CP20013</t>
   </si>
 </sst>
 </file>
@@ -592,11 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>15.99</v>
+        <v>23.99</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>47</v>
@@ -914,17 +938,63 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>29.99</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="14">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
+        <v>14.99</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="14">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="6">
-        <f>SUM(G3:G14)</f>
-        <v>217.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="G17" s="6">
+        <f>SUM(G3:G16)</f>
+        <v>262.39999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -939,9 +1009,11 @@
     <hyperlink ref="F10" r:id="rId9"/>
     <hyperlink ref="F13" r:id="rId10"/>
     <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="F15" r:id="rId12"/>
+    <hyperlink ref="F16" r:id="rId13"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId12"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>